--- a/Backend/media/planillas_excel/inventario.xlsx
+++ b/Backend/media/planillas_excel/inventario.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,12 +439,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,62 +482,6466 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>0111111111111111112</t>
+          <t>gG-927</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Cigarrillos Camel x12</t>
+          <t>Walk Institution</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>989.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2500.0</t>
+          <t>9487.99</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2022.0</t>
+          <t>6778.3</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>TiendaClick</t>
+          <t>Miller-Ingram</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>OK-416</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>lol</t>
+          <t>Believe Stand</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>8808.19</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>3302.54</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Galloway, Bowers and Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>fD-735</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Opportunity Student</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4469.75</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7479.65</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Lee, Fry and Jennings</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>fH-174</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Include Already</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>14959.14</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>4193.91</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Taylor, Austin and Herman</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>XP-937</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Mind Safe</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4182.04</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9179.15</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Harris, Daniels and Robinson</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>eT-596</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Magazine Recognize</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>2645.46</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>5656.25</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Porter Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Tz-979</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Specific Remember</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12246.96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9071.96</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Phillips and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Wi-656</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Church Even</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>1604.54</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>2803.22</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Salinas-Lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>CW-704</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Information Thing</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10563.4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2411.15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Stephenson Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Fp-881</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Popular Loss</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>7970.64</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>2669.53</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Galloway, Bowers and Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>OX-652</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Sound Discuss</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10983.69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5871.41</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Livingston-Mann</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>aO-752</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Wind Point</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>12882.94</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>7745.31</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Howard, Peterson and White</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>vq-929</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Example Action</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6990.26</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2005.96</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Cole, Rangel and Davis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>eh-924</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Together Attorney</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>12991.27</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>8626.2</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Miller-Ingram</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Qe-986</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Lawyer Happen</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8976.43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1373.38</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Day-Wright</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Hg-056</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Feel Apply</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>8051.69</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>5868.93</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Parrish, Smith and Daniels</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Vs-942</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Minute Enjoy</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4889.75</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8151.52</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Perkins Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Dv-674</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Once Decide</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>3188.81</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>9367.06</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Harris, Daniels and Robinson</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>kR-242</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Short Election</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9309.05</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4959.38</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Rodriguez Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>UN-350</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Idea National</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>8985.24</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>2556.27</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Parker-Mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>xt-569</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Conference Society</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12772.97</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2664.99</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Diaz Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>qa-036</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Page Morning</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>4533.19</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>6378.24</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Carter PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Ru-204</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Chair Assume</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5671.16</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>9189.46</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Taylor, Austin and Herman</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Fs-204</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Maintain Air</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>10217.99</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>5222.52</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>Stephenson Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>zd-587</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Nothing Manage</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10199.62</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7880.64</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Lewis, Cunningham and Diaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>QH-176</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Teacher Particularly</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>14696.27</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>9287.31</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>Reeves, Oliver and Dodson</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>gm-428</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Bad Nice</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>10789.52</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2805.69</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Miller, Andrews and Gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>xz-623</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Explain Serious</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>2531.74</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>2329.72</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Lucas-Rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>mB-583</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Party Identify</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>12655.24</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3887.33</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Haney-Clark</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>BH-878</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Blue Born</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>2281.27</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>7147.89</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Wood, Marshall and Cordova</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Ft-860</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>General Agreement</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4069.37</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>9925.74</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Schmidt-Lamb</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>vo-664</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Nothing Really</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>7682.66</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>6357.29</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>Pope, Blackwell and Woodard</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Ze-399</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Player Education</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>12324.44</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>2143.63</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Norman-Diaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>nl-430</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Politics Often</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>9948.13</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>4353.31</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>Pope, Blackwell and Woodard</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>QG-795</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Key Some</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>2032.25</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>6805.81</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Phillips and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>PP-100</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Current Else</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>11775.09</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>1949.97</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>Fisher, Adams and Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Tg-788</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Raise Describe</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>9309.26</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>3377.62</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Flores and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>mA-372</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Design Report</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>6514.96</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>5773.68</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>Perkins Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>cp-495</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Statement Any</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>6466.99</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>4716.38</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Carter PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>uc-778</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Listen Build</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>11200.78</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>2683.78</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>Williams and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>jm-929</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Movie Tend</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>1772.23</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>4716.79</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Crawford-Alexander</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>uF-165</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Who Forget</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>4541.69</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>9886.47</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>Cole, Rangel and Davis</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>YX-798</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Buy Concern</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>12228.18</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>5930.33</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Mitchell-Murphy</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>vJ-173</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Stay Though</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>12659.6</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>6212.82</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>Dyer Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>wW-761</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Point Today</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>4664.46</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>4782.85</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Ray PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>jv-904</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Everyone These</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>6771.26</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>1964.09</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>Johnson LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>GC-421</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Every Election</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>8513.45</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>9105.26</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Mitchell-Murphy</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>YT-703</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Strong Analysis</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>7211.91</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>9387.46</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>Parrish, Smith and Daniels</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>LG-116</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Describe Government</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>13854.29</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>2177.38</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Lucas-Rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>SY-246</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Only Television</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>12818.32</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>7539.66</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>Carter PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>ZQ-478</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Industry Start</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>14710.92</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>2025.27</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Mullen and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>mV-942</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Well Hear</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>3247.74</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>4064.08</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>Peterson, Rodriguez and Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>gF-506</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Style Option</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>14421.14</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>7658.84</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Cole, Rangel and Davis</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>pC-923</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Attention Number</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>14445.21</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>3114.89</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>Jarvis-Hensley</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>og-836</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>List Test</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>13468.15</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>5796.34</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Hoffman, Summers and Neal</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>IZ-143</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>Assume Strong</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>9037.53</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>7994.0</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>Adams-Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>ur-021</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Game Human</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>1410.35</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>2074.97</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Mullen and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>ZO-872</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Key Stock</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>2205.97</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>5191.55</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>Olson, Anthony and Villa</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>QD-678</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Little Sing</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>13063.54</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>5990.0</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Chan, Johnson and Melton</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Qw-452</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Much Plan</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>1249.86</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>5073.54</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>Parker-Mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Cd-374</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Strategy Leader</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>9663.17</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>9750.72</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Carter PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>HC-340</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>Same Despite</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>6945.65</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>1274.82</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>Newman, Perry and Hernandez</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Xh-219</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Determine Idea</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>6312.94</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>9361.49</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Jensen-Nelson</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Mq-951</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Service Me</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>11801.63</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>6207.86</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>Reynolds-Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>YH-880</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Customer Manage</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>10929.8</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>9538.64</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Robinson-Allen</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Cd-504</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>There Budget</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>13807.16</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>6930.63</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>Carpenter Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>nY-615</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Language Common</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>7004.75</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>5508.94</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Phillips and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>Bx-427</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>Throughout Concern</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>10228.37</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>1900.71</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>Porter Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Dx-952</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>South Throughout</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>12577.03</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>9671.68</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Beltran-Powell</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Yn-604</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Discuss Result</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>5395.01</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>1487.89</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Watts, Barrett and Simpson</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Bc-990</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Husband Raise</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>13814.14</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>2959.54</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Beltran-Powell</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Bz-525</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Be Boy</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>3916.63</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>2417.27</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>Norman-Diaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>mk-705</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Reduce Everything</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>7896.99</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>3126.49</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Beltran-Powell</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>ez-327</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Though During</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>14985.85</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>5644.0</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>James-Castillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>hy-944</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>At Discuss</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>11073.96</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>6705.98</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Hendrix, Guzman and Tran</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>pD-819</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Remember Whole</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>10654.44</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>5214.45</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>Schultz-Harrington</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>yJ-747</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Street Nature</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>8831.04</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>7260.24</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Mitchell-Murphy</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>DQ-724</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Service Family</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>3156.98</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>9582.65</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>Parker-Mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>VX-915</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Clearly Behind</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>10887.37</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>6002.95</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Chan, Johnson and Melton</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>RN-542</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>Organization Challenge</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>12821.07</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>6382.57</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>Howard, Peterson and White</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>sg-649</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Pull Food</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>2281.11</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>4864.05</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Vargas, Ashley and Harris</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>wH-697</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Sure Traditional</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>10265.73</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>6456.79</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>Avery-Bush</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Jm-958</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Fire Improve</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>5370.29</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>2449.15</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Mitchell-Murphy</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>QB-445</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>New Interesting</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>12265.93</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>5255.66</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>Fuentes, Edwards and Mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>aP-347</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Word Any</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>13413.26</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>2888.05</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Mullen and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>MA-323</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>Black Than</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>2124.88</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>5846.94</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>Wong-Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>jK-975</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Relationship Improve</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>3113.75</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>7353.98</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Wood, Marshall and Cordova</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>eK-824</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Arm Clear</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>9971.89</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>3800.33</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>Dyer Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>bu-355</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Teach Several</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>3979.49</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>8676.18</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Little, Holloway and Gay</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>Lb-055</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>Help Attorney</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>11197.39</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>1595.88</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>Romero-Turner</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>qJ-001</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Generation Now</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>11675.35</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>8298.17</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>Carter, Brewer and Ford</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>iN-309</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>Nation Score</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>13081.99</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>3293.51</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>Burns LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>If-417</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Listen Specific</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>4890.08</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>5740.92</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Pope, Blackwell and Woodard</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>bZ-539</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>Thus Low</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>5891.46</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>5570.32</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>Diaz Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Kz-759</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Think Theory</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>7351.09</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>1394.03</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>Carter, Brewer and Ford</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>uo-598</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>Situation Cultural</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>8331.99</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>5903.81</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>Cole, Rangel and Davis</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>hH-107</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Interview Behavior</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>5545.7</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>1615.51</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>Johnson LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>jQ-200</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>Amount Shoulder</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>3098.7</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>1087.05</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>Rodriguez-Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>BL-252</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Product Speak</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>11392.14</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>4476.97</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>Richard PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>KL-782</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Entire Lawyer</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>11595.09</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>9717.32</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>Dyer Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>OG-292</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Despite Really</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>3885.21</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>5628.14</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>Diaz Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>mh-324</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>Age Foot</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>11413.37</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>5746.63</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>Manning, Macdonald and Jackson</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>nt-133</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Group Society</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>13597.73</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>4044.2</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>Turner Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>BU-470</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>Dog Leave</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>6095.42</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>3234.15</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>James-Castillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RV-938</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Drop Treatment</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>7936.0</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>1385.55</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>Stephenson Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>UT-682</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Current</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>4235.74</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>4057.8</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="inlineStr">
+        <is>
+          <t>Garcia-Jordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Dw-262</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Him International</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>14358.61</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>9703.67</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>Garcia-Jordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>Sq-167</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>Debate Success</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>2716.46</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>6036.46</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>Salinas-Lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>VV-059</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Body Season</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>5409.71</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>7839.62</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>Salinas-Lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>rT-143</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>Act Drug</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>11325.46</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>4229.58</t>
+        </is>
+      </c>
+      <c r="F111" s="3" t="inlineStr">
+        <is>
+          <t>Miller-Ingram</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Rh-421</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Practice You</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>4350.58</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>1713.78</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>Webster, Navarro and Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>cJ-602</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>Success Suffer</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>8445.18</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>5048.2</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="inlineStr">
+        <is>
+          <t>Day-Wright</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Dw-975</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Through They</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>5634.89</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>8504.08</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>Chan, Johnson and Melton</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>IV-110</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>Result Economy</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>4648.69</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>6378.31</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>Manning-York</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>LU-849</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Establish Indicate</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>9243.71</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>5548.54</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>Burns LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>EX-453</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Operation Since</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>6634.06</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>1560.37</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>Galloway, Bowers and Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>dT-809</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Suffer Arm</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>3554.21</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>6819.14</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>Hoffman, Summers and Neal</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Wl-748</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Certainly Star</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>9923.59</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>3823.7</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>Day-Wright</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>ut-341</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Approach City</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>12032.05</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>2817.68</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>Turner Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>xn-309</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Radio Identify</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>3359.17</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>3773.67</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>Mcintyre-Sloan</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>VJ-025</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Theory Instead</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>3697.73</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>6452.4</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>Torres LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>Xb-893</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Give Why</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>2539.0</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>5968.04</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>Romero-Turner</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>VG-754</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Happen Manage</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>9677.37</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>5763.14</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>Flores and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>Nq-576</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>Fear Crime</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>9304.41</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>3130.08</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>Owen Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Ut-029</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Wide My</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>7513.67</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>8702.94</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>Torres LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>uN-885</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>Phone Matter</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>3913.88</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>4385.07</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>Glover, Johnson and Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>NW-532</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Now Prove</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>13018.89</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>8337.06</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>Jarvis-Hensley</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>IO-148</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>Quality Never</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>11026.84</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>3706.57</t>
+        </is>
+      </c>
+      <c r="F129" s="3" t="inlineStr">
+        <is>
+          <t>Mullen and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>ed-555</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>New Fly</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>3182.53</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>2434.51</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>Hendrix, Guzman and Tran</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>UO-605</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>Threat Fish</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>13656.31</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>2434.68</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>Galloway, Bowers and Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Vy-473</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>More Another</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>4476.77</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>2067.31</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>Manning-York</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>rc-069</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>School Seek</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>13219.54</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>7142.91</t>
+        </is>
+      </c>
+      <c r="F133" s="3" t="inlineStr">
+        <is>
+          <t>Knight, Edwards and Chambers</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>dQ-545</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Write During</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>9193.71</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>1259.77</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>Hoffman, Summers and Neal</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>ns-647</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>Stay Character</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>3778.2</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>5171.22</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>Romero-Turner</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>cU-393</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Result Indeed</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>13629.19</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>2981.82</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>Garcia-Jordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>tc-004</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>Save Sing</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>8147.1</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>5535.93</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr">
+        <is>
+          <t>Crawford-Alexander</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Up-784</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>If Entire</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>1386.26</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>6009.18</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>Miller-Kelley</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>ef-727</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>Process Every</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>1638.96</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>4916.31</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>Chambers Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Um-364</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Behind Alone</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>3975.25</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>4187.14</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>Adams-Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>AK-938</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>Involve Respond</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>5742.77</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>2585.17</t>
+        </is>
+      </c>
+      <c r="F141" s="3" t="inlineStr">
+        <is>
+          <t>Fuentes, Edwards and Mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>cK-357</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Until Standard</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>2597.08</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>6324.5</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>Villanueva Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>Gn-230</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>Can House</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>6461.46</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>6459.83</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>Norman-Diaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Hw-418</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Shake Clearly</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>8019.87</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>5551.79</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>Freeman-Hawkins</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>CF-135</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>Trip Manage</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>14543.23</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>7477.17</t>
+        </is>
+      </c>
+      <c r="F145" s="3" t="inlineStr">
+        <is>
+          <t>Fisher, Adams and Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Wi-664</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Upon Focus</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>2614.43</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>7920.46</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>Diaz Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>FX-978</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>Sometimes Visit</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>3917.25</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>7093.55</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>Vargas, Ashley and Harris</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RZ-534</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Property Even</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>10610.9</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>5216.92</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>Levy, Garcia and Fisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>ZL-078</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>Leg Media</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>8182.8</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>1257.59</t>
+        </is>
+      </c>
+      <c r="F149" s="3" t="inlineStr">
+        <is>
+          <t>Levy, Garcia and Fisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>vB-442</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>List Painting</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>12095.66</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>2806.88</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>Howard Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>dD-689</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>Improve Together</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>4907.48</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>7072.66</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>Rodriguez-Oneill</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>fP-179</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>Use Onto</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>12727.09</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>4160.64</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>Adams-Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>ID-846</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>Whom Imagine</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>7406.13</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>3697.26</t>
+        </is>
+      </c>
+      <c r="F153" s="3" t="inlineStr">
+        <is>
+          <t>Chambers Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Mh-435</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>Idea Case</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>9864.53</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>7807.26</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>Robinson-Allen</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>NI-597</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>Attorney Anyone</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>8802.96</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>9118.46</t>
+        </is>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>Peterson, Rodriguez and Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>nx-884</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>My Quality</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>8765.34</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>9473.55</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>Carpenter Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>OB-221</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>Region Act</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>13643.7</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>6336.16</t>
+        </is>
+      </c>
+      <c r="F157" s="3" t="inlineStr">
+        <is>
+          <t>Stephenson Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>FM-966</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Shoulder Itself</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>8044.58</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>2290.85</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>Cole, Rangel and Davis</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>Bd-774</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>Above However</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>11205.05</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>8242.78</t>
+        </is>
+      </c>
+      <c r="F159" s="3" t="inlineStr">
+        <is>
+          <t>Lucas-Rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>yL-513</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>Determine Herself</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>6796.63</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>4559.85</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>Wood, Marshall and Cordova</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>WS-365</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>Cause My</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>3037.89</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="inlineStr">
+        <is>
+          <t>9552.85</t>
+        </is>
+      </c>
+      <c r="F161" s="3" t="inlineStr">
+        <is>
+          <t>Lee, Fry and Jennings</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>eS-602</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Investment Bit</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>13486.72</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>5934.99</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>Chambers Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>dO-748</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>Still At</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>3657.73</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>3955.02</t>
+        </is>
+      </c>
+      <c r="F163" s="3" t="inlineStr">
+        <is>
+          <t>Love Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>XZ-831</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>Some Worry</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>7514.26</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>8531.0</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>Jarvis-Hensley</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>qh-209</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>Find Boy</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>14466.32</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="inlineStr">
+        <is>
+          <t>1846.35</t>
+        </is>
+      </c>
+      <c r="F165" s="3" t="inlineStr">
+        <is>
+          <t>Rodriguez Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Ni-584</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Particular Safe</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>3994.14</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>8095.12</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>Mcintyre-Sloan</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>Si-534</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>Difference Part</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>8190.79</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>5941.57</t>
+        </is>
+      </c>
+      <c r="F167" s="3" t="inlineStr">
+        <is>
+          <t>Howard, Peterson and White</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>if-704</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Turn Reflect</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>4628.89</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>1086.42</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>Crawford-Alexander</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>Aa-152</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>Me Each</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>11225.56</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr">
+        <is>
+          <t>7202.74</t>
+        </is>
+      </c>
+      <c r="F169" s="3" t="inlineStr">
+        <is>
+          <t>Beltran-Powell</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Dz-776</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>People All</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>14765.51</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>8469.32</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>Chan, Johnson and Melton</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>ei-029</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>Kid Me</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>12163.94</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>6458.9</t>
+        </is>
+      </c>
+      <c r="F171" s="3" t="inlineStr">
+        <is>
+          <t>Torres LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>nd-909</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Sound Commercial</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>6763.51</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>9941.73</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>Glass-Hill</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>VO-219</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>Campaign Risk</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>7341.25</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>7396.78</t>
+        </is>
+      </c>
+      <c r="F173" s="3" t="inlineStr">
+        <is>
+          <t>Vargas, Ashley and Harris</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>pK-086</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>You Yeah</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>12341.35</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>9995.29</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>Peterson, Rodriguez and Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>dX-639</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>Mention Some</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>1748.62</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>7219.45</t>
+        </is>
+      </c>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>Wong-Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>qG-727</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Although Process</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>6521.66</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>6449.54</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>Haley Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>fg-513</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>Safe Career</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>11763.92</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>4305.1</t>
+        </is>
+      </c>
+      <c r="F177" s="3" t="inlineStr">
+        <is>
+          <t>Villanueva Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>IK-663</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Day Part</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>6915.76</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>1936.24</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>Phillips and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>YE-937</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>Thus Source</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>3129.86</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>3268.5</t>
+        </is>
+      </c>
+      <c r="F179" s="3" t="inlineStr">
+        <is>
+          <t>Parker-Mills</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>rL-609</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Person Various</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>7592.2</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>8380.14</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>Clark-Curtis</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>Ve-339</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>Food Staff</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>3319.69</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>6013.05</t>
+        </is>
+      </c>
+      <c r="F181" s="3" t="inlineStr">
+        <is>
+          <t>Gutierrez-Lopez</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Ua-087</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Detail Summer</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>4508.24</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>5080.74</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>Chan, Johnson and Melton</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>dn-142</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>Plant Open</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>10377.51</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>9193.28</t>
+        </is>
+      </c>
+      <c r="F183" s="3" t="inlineStr">
+        <is>
+          <t>Rodriguez Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>gl-220</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Show Know</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>2156.79</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>6898.32</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>Wong-Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>Cy-762</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>Worry Parent</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>6601.26</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>3520.08</t>
+        </is>
+      </c>
+      <c r="F185" s="3" t="inlineStr">
+        <is>
+          <t>Watts, Barrett and Simpson</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>KI-106</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Read Page</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>11424.77</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>1649.11</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>Lucas-Rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>Dj-674</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>News People</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>9439.77</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr">
+        <is>
+          <t>9621.89</t>
+        </is>
+      </c>
+      <c r="F187" s="3" t="inlineStr">
+        <is>
+          <t>Stephenson Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>pY-156</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Reason Hospital</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>3367.77</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>3677.35</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>Mitchell-Murphy</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>gA-321</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>Decade Science</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
+        <is>
+          <t>9463.66</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="inlineStr">
+        <is>
+          <t>2736.17</t>
+        </is>
+      </c>
+      <c r="F189" s="3" t="inlineStr">
+        <is>
+          <t>Mullen and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>dq-850</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Heart Money</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>4398.82</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>4995.09</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>Owen Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>fe-384</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>Gas Visit</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="inlineStr">
+        <is>
+          <t>3771.06</t>
+        </is>
+      </c>
+      <c r="E191" s="3" t="inlineStr">
+        <is>
+          <t>4781.34</t>
+        </is>
+      </c>
+      <c r="F191" s="3" t="inlineStr">
+        <is>
+          <t>Raymond, Martinez and Warren</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>te-313</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Interview Language</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>8355.73</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>6059.6</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>Stewart Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>Cp-335</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>Laugh Understand</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t>13077.64</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="inlineStr">
+        <is>
+          <t>6993.26</t>
+        </is>
+      </c>
+      <c r="F193" s="3" t="inlineStr">
+        <is>
+          <t>Ingram, Walker and Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>WJ-843</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Rise Though</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>12404.13</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>8218.47</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>Richard PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>aI-456</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>Available None</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>10603.83</t>
+        </is>
+      </c>
+      <c r="E195" s="3" t="inlineStr">
+        <is>
+          <t>6034.78</t>
+        </is>
+      </c>
+      <c r="F195" s="3" t="inlineStr">
+        <is>
+          <t>Haney-Clark</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>dH-329</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Entire Which</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>2830.62</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>6890.07</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>Williams and Sons</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>YM-925</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>Crime Behind</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>2878.14</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr">
+        <is>
+          <t>2952.2</t>
+        </is>
+      </c>
+      <c r="F197" s="3" t="inlineStr">
+        <is>
+          <t>Burns LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>ZM-790</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Very All</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>14443.46</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>8780.61</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>Garcia-Jordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>rB-926</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>Sure Message</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>9145.68</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>9511.84</t>
+        </is>
+      </c>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>Lewis, Cunningham and Diaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>mm-550</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Represent Area</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>11542.51</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>7331.89</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>Ray PLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>fM-349</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>Blue Fine</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>11162.75</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>1137.36</t>
+        </is>
+      </c>
+      <c r="F201" s="3" t="inlineStr">
+        <is>
+          <t>Johnson LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>21w3123123</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>231231</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>Turner Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>12123123123</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>312231231</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F203" s="3" t="inlineStr">
+        <is>
+          <t>Mitchell-Murphy</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Backend/media/planillas_excel/inventario.xlsx
+++ b/Backend/media/planillas_excel/inventario.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,10 +439,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="32" customWidth="1" min="6" max="6"/>
   </cols>
@@ -492,12 +492,12 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>1222.0</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>9487.99</t>
+          <t>27487.540476000013</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>8808.19</t>
+          <t>23212.92776220001</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -546,204 +546,204 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>fD-735</t>
+          <t>fH-174</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Opportunity Student</t>
+          <t>Include Already</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4469.75</t>
+          <t>39423.01837320001</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7479.65</t>
+          <t>4193.91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Lee, Fry and Jennings</t>
+          <t>Taylor, Austin and Herman</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>fH-174</t>
+          <t>XP-937</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Include Already</t>
+          <t>Mind Safe</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>14959.14</t>
+          <t>11021.264575200004</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>4193.91</t>
+          <t>9179.15</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Taylor, Austin and Herman</t>
+          <t>Harris, Daniels and Robinson</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>XP-937</t>
+          <t>eT-596</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Mind Safe</t>
+          <t>Magazine Recognize</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4182.04</t>
+          <t>6971.792374800003</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9179.15</t>
+          <t>5656.25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Harris, Daniels and Robinson</t>
+          <t>Porter Ltd</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>eT-596</t>
+          <t>Tz-979</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Magazine Recognize</t>
+          <t>Specific Remember</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>2645.46</t>
+          <t>35502.93278928002</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>5656.25</t>
+          <t>9071.96</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Porter Ltd</t>
+          <t>Phillips and Sons</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Tz-979</t>
+          <t>Wi-656</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Specific Remember</t>
+          <t>Church Even</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12246.96</t>
+          <t>4651.429887720003</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9071.96</t>
+          <t>2803.22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Phillips and Sons</t>
+          <t>Salinas-Lee</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Wi-656</t>
+          <t>CW-704</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Church Even</t>
+          <t>Information Thing</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>1604.54</t>
+          <t>27838.573092000002</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>2803.22</t>
+          <t>2411.15</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Salinas-Lee</t>
+          <t>Stephenson Group</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CW-704</t>
+          <t>Fp-881</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Information Thing</t>
+          <t>Popular Loss</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -753,157 +753,157 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10563.4</t>
+          <t>21005.665243200012</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2411.15</t>
+          <t>2669.53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Stephenson Group</t>
+          <t>Galloway, Bowers and Smith</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Fp-881</t>
+          <t>OX-652</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Popular Loss</t>
+          <t>Sound Discuss</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>7970.64</t>
+          <t>31840.816647420015</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>2669.53</t>
+          <t>5871.41</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Galloway, Bowers and Smith</t>
+          <t>Livingston-Mann</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>OX-652</t>
+          <t>aO-752</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Sound Discuss</t>
+          <t>Wind Point</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10983.69</t>
+          <t>37346.586658920016</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5871.41</t>
+          <t>7745.31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Livingston-Mann</t>
+          <t>Howard, Peterson and White</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>aO-752</t>
+          <t>vq-929</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Wind Point</t>
+          <t>Example Action</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>12882.94</t>
+          <t>18421.991398800008</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>7745.31</t>
+          <t>2005.96</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Howard, Peterson and White</t>
+          <t>Cole, Rangel and Davis</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>vq-929</t>
+          <t>eh-924</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Example Action</t>
+          <t>Together Attorney</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6990.26</t>
+          <t>34236.93313260001</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2005.96</t>
+          <t>8626.2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Cole, Rangel and Davis</t>
+          <t>Miller-Ingram</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>eh-924</t>
+          <t>Qe-986</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Together Attorney</t>
+          <t>Lawyer Happen</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -913,413 +913,413 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>12991.27</t>
+          <t>23656.304093400002</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>8626.2</t>
+          <t>1373.38</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Miller-Ingram</t>
+          <t>Day-Wright</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Qe-986</t>
+          <t>Hg-056</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Lawyer Happen</t>
+          <t>Feel Apply</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8976.43</t>
+          <t>21219.262792200007</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1373.38</t>
+          <t>5868.93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Day-Wright</t>
+          <t>Parrish, Smith and Daniels</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Hg-056</t>
+          <t>Vs-942</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Feel Apply</t>
+          <t>Minute Enjoy</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>8051.69</t>
+          <t>12886.349355000006</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>5868.93</t>
+          <t>8151.52</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>Parrish, Smith and Daniels</t>
+          <t>Perkins Ltd</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Vs-942</t>
+          <t>Dv-674</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Minute Enjoy</t>
+          <t>Once Decide</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4889.75</t>
+          <t>8403.726097800003</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8151.52</t>
+          <t>9367.06</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Perkins Ltd</t>
+          <t>Harris, Daniels and Robinson</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Dv-674</t>
+          <t>kR-242</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Once Decide</t>
+          <t>Short Election</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>3188.81</t>
+          <t>24532.884189000004</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>9367.06</t>
+          <t>4959.38</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Harris, Daniels and Robinson</t>
+          <t>Rodriguez Group</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>kR-242</t>
+          <t>UN-350</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Short Election</t>
+          <t>Idea National</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9309.05</t>
+          <t>26047.47397032001</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4959.38</t>
+          <t>2556.27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Rodriguez Group</t>
+          <t>Parker-Mills</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>UN-350</t>
+          <t>xt-569</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Idea National</t>
+          <t>Conference Society</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>8985.24</t>
+          <t>33661.62967860001</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>2556.27</t>
+          <t>2664.99</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>Parker-Mills</t>
+          <t>Diaz Group</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>xt-569</t>
+          <t>qa-036</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Conference Society</t>
+          <t>Page Morning</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12772.97</t>
+          <t>13141.346088420005</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2664.99</t>
+          <t>6378.24</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Diaz Group</t>
+          <t>Carter PLC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>qa-036</t>
+          <t>Ru-204</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Page Morning</t>
+          <t>Chair Assume</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>4533.19</t>
+          <t>14945.661640800005</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>6378.24</t>
+          <t>9189.46</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Carter PLC</t>
+          <t>Taylor, Austin and Herman</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Ru-204</t>
+          <t>Fs-204</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Chair Assume</t>
+          <t>Maintain Air</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5671.16</t>
+          <t>26928.286486200013</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9189.46</t>
+          <t>5222.52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Taylor, Austin and Herman</t>
+          <t>Stephenson Group</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Fs-204</t>
+          <t>zd-587</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Maintain Air</t>
+          <t>Nothing Manage</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>10217.99</t>
+          <t>29567.862011160018</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>5222.52</t>
+          <t>7880.64</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>Stephenson Group</t>
+          <t>Lewis, Cunningham and Diaz</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>zd-587</t>
+          <t>QH-176</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Nothing Manage</t>
+          <t>Teacher Particularly</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10199.62</t>
+          <t>38730.25603260002</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7880.64</t>
+          <t>9287.31</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Lewis, Cunningham and Diaz</t>
+          <t>Reeves, Oliver and Dodson</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>QH-176</t>
+          <t>gm-428</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Teacher Particularly</t>
+          <t>Bad Nice</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>14696.27</t>
+          <t>28434.485217600013</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>9287.31</t>
+          <t>2805.69</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Reeves, Oliver and Dodson</t>
+          <t>Miller, Andrews and Gray</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>gm-428</t>
+          <t>xz-623</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Bad Nice</t>
+          <t>Explain Serious</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1329,381 +1329,381 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>10789.52</t>
+          <t>7339.306657320001</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2805.69</t>
+          <t>2329.72</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Miller, Andrews and Gray</t>
+          <t>Lucas-Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>xz-623</t>
+          <t>mB-583</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Explain Serious</t>
+          <t>Party Identify</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>2531.74</t>
+          <t>36686.50303032002</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>2329.72</t>
+          <t>3887.33</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Lucas-Rodriguez</t>
+          <t>Haney-Clark</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>mB-583</t>
+          <t>BH-878</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Party Identify</t>
+          <t>Blue Born</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>12655.24</t>
+          <t>6012.013332600003</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3887.33</t>
+          <t>7147.89</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Haney-Clark</t>
+          <t>Wood, Marshall and Cordova</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>BH-878</t>
+          <t>Ft-860</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Blue Born</t>
+          <t>General Agreement</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>2281.27</t>
+          <t>11796.769941660004</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>7147.89</t>
+          <t>9925.74</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>Wood, Marshall and Cordova</t>
+          <t>Schmidt-Lamb</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Ft-860</t>
+          <t>vo-664</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>General Agreement</t>
+          <t>Nothing Really</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>4069.37</t>
+          <t>20246.728510800007</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9925.74</t>
+          <t>6357.29</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Schmidt-Lamb</t>
+          <t>Pope, Blackwell and Woodard</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>vo-664</t>
+          <t>Ze-399</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Nothing Really</t>
+          <t>Player Education</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>7682.66</t>
+          <t>32479.58268720001</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>6357.29</t>
+          <t>2143.63</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>Pope, Blackwell and Woodard</t>
+          <t>Norman-Diaz</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Ze-399</t>
+          <t>nl-430</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Player Education</t>
+          <t>Politics Often</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>12324.44</t>
+          <t>28838.81312334001</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2143.63</t>
+          <t>4353.31</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Norman-Diaz</t>
+          <t>Pope, Blackwell and Woodard</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>nl-430</t>
+          <t>QG-795</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Politics Often</t>
+          <t>Key Some</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>9948.13</t>
+          <t>5355.751005000002</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>4353.31</t>
+          <t>6805.81</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Pope, Blackwell and Woodard</t>
+          <t>Phillips and Sons</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>QG-795</t>
+          <t>PP-100</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Key Some</t>
+          <t>Current Else</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>2032.25</t>
+          <t>34135.02035262002</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6805.81</t>
+          <t>1949.97</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>Phillips and Sons</t>
+          <t>Fisher, Adams and Brown</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>PP-100</t>
+          <t>Tg-788</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Current Else</t>
+          <t>Raise Describe</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>11775.09</t>
+          <t>24533.43761880001</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>1949.97</t>
+          <t>3377.62</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Fisher, Adams and Brown</t>
+          <t>Flores and Sons</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Tg-788</t>
+          <t>mA-372</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Raise Describe</t>
+          <t>Design Report</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>9309.26</t>
+          <t>18886.33481328001</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>3377.62</t>
+          <t>5773.68</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>Flores and Sons</t>
+          <t>Perkins Ltd</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>mA-372</t>
+          <t>cp-495</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Design Report</t>
+          <t>Statement Any</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>6514.96</t>
+          <t>17042.976106200003</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>5773.68</t>
+          <t>4716.38</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Perkins Ltd</t>
+          <t>Carter PLC</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>cp-495</t>
+          <t>uc-778</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Statement Any</t>
+          <t>Listen Build</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1713,29 +1713,29 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>6466.99</t>
+          <t>32470.142756040015</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>4716.38</t>
+          <t>2683.78</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>Carter PLC</t>
+          <t>Williams and Sons</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>uc-778</t>
+          <t>jm-929</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Listen Build</t>
+          <t>Movie Tend</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1745,573 +1745,573 @@
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>11200.78</t>
+          <t>4670.499497400002</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>2683.78</t>
+          <t>4716.79</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>Williams and Sons</t>
+          <t>Crawford-Alexander</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>jm-929</t>
+          <t>uF-165</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Movie Tend</t>
+          <t>Who Forget</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>1772.23</t>
+          <t>11969.078992200002</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>4716.79</t>
+          <t>9886.47</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>Crawford-Alexander</t>
+          <t>Cole, Rangel and Davis</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>uF-165</t>
+          <t>YX-798</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Who Forget</t>
+          <t>Buy Concern</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>4541.69</t>
+          <t>35448.49110924002</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>9886.47</t>
+          <t>5930.33</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Cole, Rangel and Davis</t>
+          <t>Mitchell-Murphy</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>YX-798</t>
+          <t>vJ-173</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Buy Concern</t>
+          <t>Stay Though</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>12228.18</t>
+          <t>36699.14231280001</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>5930.33</t>
+          <t>6212.82</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>Mitchell-Murphy</t>
+          <t>Dyer Group</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>vJ-173</t>
+          <t>wW-761</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Stay Though</t>
+          <t>Point Today</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>12659.6</t>
+          <t>12292.624594800007</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>6212.82</t>
+          <t>4782.85</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Dyer Group</t>
+          <t>Ray PLC</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>wW-761</t>
+          <t>jv-904</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Point Today</t>
+          <t>Everyone These</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>4664.46</t>
+          <t>17844.84317880001</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>4782.85</t>
+          <t>1964.09</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>Ray PLC</t>
+          <t>Johnson LLC</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>jv-904</t>
+          <t>GC-421</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Everyone These</t>
+          <t>Every Election</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>6771.26</t>
+          <t>22436.175861000014</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>1964.09</t>
+          <t>9105.26</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Johnson LLC</t>
+          <t>Mitchell-Murphy</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GC-421</t>
+          <t>YT-703</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Every Election</t>
+          <t>Strong Analysis</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>8513.45</t>
+          <t>20906.735713380007</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>9105.26</t>
+          <t>9387.46</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>Mitchell-Murphy</t>
+          <t>Parrish, Smith and Daniels</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>YT-703</t>
+          <t>LG-116</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Strong Analysis</t>
+          <t>Describe Government</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>7211.91</t>
+          <t>36511.31878020002</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>9387.46</t>
+          <t>2177.38</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>Parrish, Smith and Daniels</t>
+          <t>Lucas-Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>LG-116</t>
+          <t>SY-246</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Describe Government</t>
+          <t>Only Television</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>13854.29</t>
+          <t>33781.14416160001</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>2177.38</t>
+          <t>7539.66</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>Lucas-Rodriguez</t>
+          <t>Carter PLC</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>SY-246</t>
+          <t>ZQ-478</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Only Television</t>
+          <t>Industry Start</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>12818.32</t>
+          <t>42645.75078456002</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>7539.66</t>
+          <t>2025.27</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>Carter PLC</t>
+          <t>Mullen and Sons</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>ZQ-478</t>
+          <t>mV-942</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Industry Start</t>
+          <t>Well Hear</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>14710.92</t>
+          <t>8559.029041200003</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>2025.27</t>
+          <t>4064.08</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>Mullen and Sons</t>
+          <t>Peterson, Rodriguez and Miller</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>mV-942</t>
+          <t>gF-506</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Well Hear</t>
+          <t>Style Option</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>3247.74</t>
+          <t>38005.18393320001</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>4064.08</t>
+          <t>7658.84</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>Peterson, Rodriguez and Miller</t>
+          <t>Cole, Rangel and Davis</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>gF-506</t>
+          <t>pC-923</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Style Option</t>
+          <t>Attention Number</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>14421.14</t>
+          <t>41875.47928278002</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>7658.84</t>
+          <t>3114.89</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>Cole, Rangel and Davis</t>
+          <t>Jarvis-Hensley</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>pC-923</t>
+          <t>og-836</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Attention Number</t>
+          <t>List Test</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>14445.21</t>
+          <t>35493.693147000005</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>3114.89</t>
+          <t>5796.34</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>Jarvis-Hensley</t>
+          <t>Hoffman, Summers and Neal</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>og-836</t>
+          <t>IZ-143</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>List Test</t>
+          <t>Assume Strong</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>13468.15</t>
+          <t>23817.325811400005</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>5796.34</t>
+          <t>7994.0</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>Hoffman, Summers and Neal</t>
+          <t>Adams-Williams</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>IZ-143</t>
+          <t>ur-021</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Assume Strong</t>
+          <t>Game Human</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>9037.53</t>
+          <t>4088.4890013000013</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>7994.0</t>
+          <t>2074.97</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>Adams-Williams</t>
+          <t>Mullen and Sons</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>ur-021</t>
+          <t>ZO-872</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Game Human</t>
+          <t>Key Stock</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>1410.35</t>
+          <t>5813.5692186000015</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>2074.97</t>
+          <t>5191.55</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>Mullen and Sons</t>
+          <t>Olson, Anthony and Villa</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>ZO-872</t>
+          <t>QD-678</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Key Stock</t>
+          <t>Little Sing</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2321,765 +2321,765 @@
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>2205.97</t>
+          <t>37870.13124972002</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>5191.55</t>
+          <t>5990.0</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>Olson, Anthony and Villa</t>
+          <t>Chan, Johnson and Melton</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>QD-678</t>
+          <t>Qw-452</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Little Sing</t>
+          <t>Much Plan</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>13063.54</t>
+          <t>3623.241651480002</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>5990.0</t>
+          <t>5073.54</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>Chan, Johnson and Melton</t>
+          <t>Parker-Mills</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Qw-452</t>
+          <t>Cd-374</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Much Plan</t>
+          <t>Strategy Leader</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>1249.86</t>
+          <t>25466.124954600007</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>5073.54</t>
+          <t>9750.72</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>Parker-Mills</t>
+          <t>Carter PLC</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Cd-374</t>
+          <t>HC-340</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Strategy Leader</t>
+          <t>Same Despite</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>9663.17</t>
+          <t>20134.869806700008</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>9750.72</t>
+          <t>1274.82</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>Carter PLC</t>
+          <t>Newman, Perry and Hernandez</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>HC-340</t>
+          <t>Xh-219</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Same Despite</t>
+          <t>Determine Idea</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>6945.65</t>
+          <t>16636.995817200004</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>1274.82</t>
+          <t>9361.49</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>Newman, Perry and Hernandez</t>
+          <t>Jensen-Nelson</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Xh-219</t>
+          <t>Mq-951</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Determine Idea</t>
+          <t>Service Me</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>6312.94</t>
+          <t>34211.95763634001</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>9361.49</t>
+          <t>6207.86</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>Jensen-Nelson</t>
+          <t>Reynolds-Yu</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Mq-951</t>
+          <t>YH-880</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Service Me</t>
+          <t>Customer Manage</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>11801.63</t>
+          <t>28804.176324000004</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>6207.86</t>
+          <t>9538.64</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>Reynolds-Yu</t>
+          <t>Robinson-Allen</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>YH-880</t>
+          <t>Cd-504</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Customer Manage</t>
+          <t>There Budget</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>10929.8</t>
+          <t>36387.11332080001</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>9538.64</t>
+          <t>6930.63</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>Robinson-Allen</t>
+          <t>Carpenter Ltd</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Cd-504</t>
+          <t>nY-615</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>There Budget</t>
+          <t>Language Common</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>13807.16</t>
+          <t>18460.178055000008</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>6930.63</t>
+          <t>5508.94</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>Carpenter Ltd</t>
+          <t>Phillips and Sons</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>nY-615</t>
+          <t>Bx-427</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Language Common</t>
+          <t>Throughout Concern</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>7004.75</t>
+          <t>26955.641730600015</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>5508.94</t>
+          <t>1900.71</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>Phillips and Sons</t>
+          <t>Porter Ltd</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Bx-427</t>
+          <t>Dx-952</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Throughout Concern</t>
+          <t>South Throughout</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>10228.37</t>
+          <t>33145.25332140001</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>1900.71</t>
+          <t>9671.68</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>Porter Ltd</t>
+          <t>Beltran-Powell</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>Dx-952</t>
+          <t>Yn-604</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>South Throughout</t>
+          <t>Discuss Result</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>12577.03</t>
+          <t>14217.901453800003</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>9671.68</t>
+          <t>1487.89</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>Beltran-Powell</t>
+          <t>Watts, Barrett and Simpson</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Yn-604</t>
+          <t>Bc-990</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Discuss Result</t>
+          <t>Husband Raise</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>5395.01</t>
+          <t>40046.05910052001</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>1487.89</t>
+          <t>2959.54</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>Watts, Barrett and Simpson</t>
+          <t>Beltran-Powell</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Bc-990</t>
+          <t>Bz-525</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Husband Raise</t>
+          <t>Be Boy</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>13814.14</t>
+          <t>10321.808369400003</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>2959.54</t>
+          <t>2417.27</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>Beltran-Powell</t>
+          <t>Norman-Diaz</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Bz-525</t>
+          <t>mk-705</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Be Boy</t>
+          <t>Reduce Everything</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>3916.63</t>
+          <t>20811.56950620001</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>2417.27</t>
+          <t>3126.49</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>Norman-Diaz</t>
+          <t>Beltran-Powell</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>mk-705</t>
+          <t>ez-327</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Reduce Everything</t>
+          <t>Though During</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>7896.99</t>
+          <t>43442.75031030001</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>3126.49</t>
+          <t>5644.0</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>Beltran-Powell</t>
+          <t>James-Castillo</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>ez-327</t>
+          <t>hy-944</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Though During</t>
+          <t>At Discuss</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>14985.85</t>
+          <t>29184.09270480001</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>5644.0</t>
+          <t>6705.98</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>James-Castillo</t>
+          <t>Hendrix, Guzman and Tran</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>hy-944</t>
+          <t>pD-819</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>At Discuss</t>
+          <t>Remember Whole</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>11073.96</t>
+          <t>30886.347895920015</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>6705.98</t>
+          <t>5214.45</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>Hendrix, Guzman and Tran</t>
+          <t>Schultz-Harrington</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>pD-819</t>
+          <t>yJ-747</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Remember Whole</t>
+          <t>Street Nature</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>10654.44</t>
+          <t>23273.146195200014</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>5214.45</t>
+          <t>7260.24</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>Schultz-Harrington</t>
+          <t>Mitchell-Murphy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>yJ-747</t>
+          <t>DQ-724</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Street Nature</t>
+          <t>Service Family</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>8831.04</t>
+          <t>8319.841952400002</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>7260.24</t>
+          <t>9582.65</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>Mitchell-Murphy</t>
+          <t>Parker-Mills</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>DQ-724</t>
+          <t>VX-915</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Service Family</t>
+          <t>Clearly Behind</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>3156.98</t>
+          <t>28692.35715060001</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>9582.65</t>
+          <t>6002.95</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Parker-Mills</t>
+          <t>Chan, Johnson and Melton</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>VX-915</t>
+          <t>RN-542</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Clearly Behind</t>
+          <t>Organization Challenge</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>10887.37</t>
+          <t>33788.39145660001</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>6002.95</t>
+          <t>6382.57</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>Chan, Johnson and Melton</t>
+          <t>Howard, Peterson and White</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>RN-542</t>
+          <t>sg-649</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Organization Challenge</t>
+          <t>Pull Food</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>12821.07</t>
+          <t>6011.591671800003</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>6382.57</t>
+          <t>4864.05</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Howard, Peterson and White</t>
+          <t>Vargas, Ashley and Harris</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>sg-649</t>
+          <t>wH-697</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Pull Food</t>
+          <t>Sure Traditional</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>2281.11</t>
+          <t>27054.09952740001</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>4864.05</t>
+          <t>6456.79</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>Vargas, Ashley and Harris</t>
+          <t>Avery-Bush</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>wH-697</t>
+          <t>Jm-958</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Sure Traditional</t>
+          <t>Fire Improve</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3089,221 +3089,221 @@
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>10265.73</t>
+          <t>14152.754860200006</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>6456.79</t>
+          <t>2449.15</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Avery-Bush</t>
+          <t>Mitchell-Murphy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Jm-958</t>
+          <t>QB-445</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Fire Improve</t>
+          <t>New Interesting</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>5370.29</t>
+          <t>32325.38660340001</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>2449.15</t>
+          <t>5255.66</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>Mitchell-Murphy</t>
+          <t>Fuentes, Edwards and Mills</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>QB-445</t>
+          <t>aP-347</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>New Interesting</t>
+          <t>Word Any</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>12265.93</t>
+          <t>35349.03713880001</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>5255.66</t>
+          <t>2888.05</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Fuentes, Edwards and Mills</t>
+          <t>Mullen and Sons</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>aP-347</t>
+          <t>MA-323</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Word Any</t>
+          <t>Black Than</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>13413.26</t>
+          <t>5599.866254400003</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>2888.05</t>
+          <t>5846.94</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>Mullen and Sons</t>
+          <t>Wong-Smith</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>MA-323</t>
+          <t>jK-975</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Black Than</t>
+          <t>Relationship Improve</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>2124.88</t>
+          <t>8205.914475000001</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>5846.94</t>
+          <t>7353.98</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Wong-Smith</t>
+          <t>Wood, Marshall and Cordova</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>jK-975</t>
+          <t>eK-824</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Relationship Improve</t>
+          <t>Arm Clear</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>3113.75</t>
+          <t>26279.719468200004</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>7353.98</t>
+          <t>3800.33</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>Wood, Marshall and Cordova</t>
+          <t>Dyer Group</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>eK-824</t>
+          <t>bu-355</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Arm Clear</t>
+          <t>Teach Several</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>9971.89</t>
+          <t>10487.468356200003</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>3800.33</t>
+          <t>8676.18</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>Dyer Group</t>
+          <t>Little, Holloway and Gay</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>bu-355</t>
+          <t>Lb-055</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Teach Several</t>
+          <t>Help Attorney</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -3313,509 +3313,509 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>3979.49</t>
+          <t>29509.377658200006</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>8676.18</t>
+          <t>1595.88</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>Little, Holloway and Gay</t>
+          <t>Romero-Turner</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Lb-055</t>
+          <t>qJ-001</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Help Attorney</t>
+          <t>Generation Now</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>11197.39</t>
+          <t>33845.88227130001</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>1595.88</t>
+          <t>8298.17</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Romero-Turner</t>
+          <t>Carter, Brewer and Ford</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>qJ-001</t>
+          <t>iN-309</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Generation Now</t>
+          <t>Nation Score</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>11675.35</t>
+          <t>34476.01480620001</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>8298.17</t>
+          <t>3293.51</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>Carter, Brewer and Ford</t>
+          <t>Burns LLC</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>iN-309</t>
+          <t>If-417</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Nation Score</t>
+          <t>Listen Specific</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>13081.99</t>
+          <t>12887.219030400005</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>3293.51</t>
+          <t>5740.92</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Burns LLC</t>
+          <t>Pope, Blackwell and Woodard</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>If-417</t>
+          <t>bZ-539</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Listen Specific</t>
+          <t>Thus Low</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>4890.08</t>
+          <t>15526.235854800007</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>5740.92</t>
+          <t>5570.32</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>Pope, Blackwell and Woodard</t>
+          <t>Diaz Group</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>bZ-539</t>
+          <t>Kz-759</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Thus Low</t>
+          <t>Think Theory</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>5891.46</t>
+          <t>19372.915564200008</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>5570.32</t>
+          <t>1394.03</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Diaz Group</t>
+          <t>Carter, Brewer and Ford</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Kz-759</t>
+          <t>uo-598</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Think Theory</t>
+          <t>Situation Cultural</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>7351.09</t>
+          <t>21957.959806200004</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>1394.03</t>
+          <t>5903.81</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>Carter, Brewer and Ford</t>
+          <t>Cole, Rangel and Davis</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>uo-598</t>
+          <t>hH-107</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Situation Cultural</t>
+          <t>Interview Behavior</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>8331.99</t>
+          <t>16076.529552600008</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>5903.81</t>
+          <t>1615.51</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>Cole, Rangel and Davis</t>
+          <t>Johnson LLC</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>hH-107</t>
+          <t>jQ-200</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Interview Behavior</t>
+          <t>Amount Shoulder</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>5545.7</t>
+          <t>8166.252006000002</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>1615.51</t>
+          <t>1087.05</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>Johnson LLC</t>
+          <t>Rodriguez-Smith</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>jQ-200</t>
+          <t>BL-252</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Amount Shoulder</t>
+          <t>Product Speak</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>3098.7</t>
+          <t>30022.61791320001</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>1087.05</t>
+          <t>4476.97</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Rodriguez-Smith</t>
+          <t>Richard PLC</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BL-252</t>
+          <t>KL-782</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Product Speak</t>
+          <t>Entire Lawyer</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>11392.14</t>
+          <t>30557.468284200015</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>4476.97</t>
+          <t>9717.32</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>Richard PLC</t>
+          <t>Dyer Group</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>KL-782</t>
+          <t>OG-292</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Entire Lawyer</t>
+          <t>Despite Really</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>11595.09</t>
+          <t>10239.004729800004</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>9717.32</t>
+          <t>5628.14</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>Dyer Group</t>
+          <t>Diaz Group</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>OG-292</t>
+          <t>mh-324</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Despite Really</t>
+          <t>Age Foot</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>3885.21</t>
+          <t>33086.42373366002</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>5628.14</t>
+          <t>5746.63</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>Diaz Group</t>
+          <t>Manning, Macdonald and Jackson</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>mh-324</t>
+          <t>nt-133</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Age Foot</t>
+          <t>Group Society</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>11413.37</t>
+          <t>39418.70425614001</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>5746.63</t>
+          <t>4044.2</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>Manning, Macdonald and Jackson</t>
+          <t>Turner Group</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>nt-133</t>
+          <t>BU-470</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Group Society</t>
+          <t>Dog Leave</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>13597.73</t>
+          <t>16063.747959600007</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>4044.2</t>
+          <t>3234.15</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>Turner Group</t>
+          <t>James-Castillo</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>BU-470</t>
+          <t>RV-938</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Dog Leave</t>
+          <t>Drop Treatment</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>6095.42</t>
+          <t>23005.81324800001</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>3234.15</t>
+          <t>1385.55</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>James-Castillo</t>
+          <t>Stephenson Group</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>RV-938</t>
+          <t>UT-682</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Drop Treatment</t>
+          <t>Traditional Current</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -3825,44 +3825,44 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>7936.0</t>
+          <t>11162.784481200004</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>1385.55</t>
+          <t>4057.8</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>Stephenson Group</t>
+          <t>Garcia-Jordan</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>UT-682</t>
+          <t>Dw-262</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Traditional Current</t>
+          <t>Him International</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>4235.74</t>
+          <t>37840.393621800016</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>4057.8</t>
+          <t>9703.67</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
@@ -3874,59 +3874,59 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>Dw-262</t>
+          <t>Sq-167</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Him International</t>
+          <t>Debate Success</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>14358.61</t>
+          <t>7874.794790280003</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>9703.67</t>
+          <t>6036.46</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>Garcia-Jordan</t>
+          <t>Salinas-Lee</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Sq-167</t>
+          <t>VV-059</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Debate Success</t>
+          <t>Body Season</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>2716.46</t>
+          <t>14256.641539800003</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>6036.46</t>
+          <t>7839.62</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
@@ -3938,76 +3938,76 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>VV-059</t>
+          <t>rT-143</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Body Season</t>
+          <t>Act Drug</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>5409.71</t>
+          <t>29846.890774800006</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>7839.62</t>
+          <t>4229.58</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>Salinas-Lee</t>
+          <t>Miller-Ingram</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>rT-143</t>
+          <t>Rh-421</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Act Drug</t>
+          <t>Practice You</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>11325.46</t>
+          <t>12611.974672440007</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>4229.58</t>
+          <t>1713.78</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>Miller-Ingram</t>
+          <t>Webster, Navarro and Brown</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>Rh-421</t>
+          <t>cJ-602</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Practice You</t>
+          <t>Success Suffer</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -4017,29 +4017,29 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>4350.58</t>
+          <t>22256.258468400003</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>1713.78</t>
+          <t>5048.2</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>Webster, Navarro and Brown</t>
+          <t>Day-Wright</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>cJ-602</t>
+          <t>Dw-975</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Success Suffer</t>
+          <t>Through They</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -4049,29 +4049,29 @@
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>8445.18</t>
+          <t>16335.084049020006</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>5048.2</t>
+          <t>8504.08</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>Day-Wright</t>
+          <t>Chan, Johnson and Melton</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>Dw-975</t>
+          <t>IV-110</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Through They</t>
+          <t>Result Economy</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -4081,29 +4081,29 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>5634.89</t>
+          <t>13476.171117420005</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>8504.08</t>
+          <t>6378.31</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>Chan, Johnson and Melton</t>
+          <t>Manning-York</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>IV-110</t>
+          <t>LU-849</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Result Economy</t>
+          <t>Establish Indicate</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4113,733 +4113,733 @@
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>4648.69</t>
+          <t>24360.688459800007</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>6378.31</t>
+          <t>5548.54</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>Manning-York</t>
+          <t>Burns LLC</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>LU-849</t>
+          <t>EX-453</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Establish Indicate</t>
+          <t>Operation Since</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>9243.71</t>
+          <t>17483.269042800006</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>5548.54</t>
+          <t>1560.37</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>Burns LLC</t>
+          <t>Galloway, Bowers and Smith</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>EX-453</t>
+          <t>dT-809</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Operation Since</t>
+          <t>Suffer Arm</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>6634.06</t>
+          <t>9366.693949800003</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>1560.37</t>
+          <t>6819.14</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>Galloway, Bowers and Smith</t>
+          <t>Hoffman, Summers and Neal</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>dT-809</t>
+          <t>Wl-748</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Suffer Arm</t>
+          <t>Certainly Star</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>3554.21</t>
+          <t>28767.673675620015</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>6819.14</t>
+          <t>3823.7</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>Hoffman, Summers and Neal</t>
+          <t>Day-Wright</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Wl-748</t>
+          <t>ut-341</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Certainly Star</t>
+          <t>Approach City</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>9923.59</t>
+          <t>31709.02392900001</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>3823.7</t>
+          <t>2817.68</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>Day-Wright</t>
+          <t>Turner Group</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>ut-341</t>
+          <t>xn-309</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Approach City</t>
+          <t>Radio Identify</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>12032.05</t>
+          <t>8852.689434600003</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>2817.68</t>
+          <t>3773.67</t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>Turner Group</t>
+          <t>Mcintyre-Sloan</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>xn-309</t>
+          <t>VJ-025</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Radio Identify</t>
+          <t>Theory Instead</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t>3359.17</t>
+          <t>9744.923687400002</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
-          <t>3773.67</t>
+          <t>6452.4</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>Mcintyre-Sloan</t>
+          <t>Torres LLC</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>VJ-025</t>
+          <t>Xb-893</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Theory Instead</t>
+          <t>Give Why</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>3697.73</t>
+          <t>7360.352802000004</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>6452.4</t>
+          <t>5968.04</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>Torres LLC</t>
+          <t>Romero-Turner</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Xb-893</t>
+          <t>VG-754</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Give Why</t>
+          <t>Happen Manage</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t>2539.0</t>
+          <t>25503.547350600013</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t>5968.04</t>
+          <t>5763.14</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>Romero-Turner</t>
+          <t>Flores and Sons</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>VG-754</t>
+          <t>Nq-576</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Happen Manage</t>
+          <t>Fear Crime</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>9677.37</t>
+          <t>26972.72162838001</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>5763.14</t>
+          <t>3130.08</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>Flores and Sons</t>
+          <t>Owen Group</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Nq-576</t>
+          <t>Ut-029</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Fear Crime</t>
+          <t>Wide My</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t>9304.41</t>
+          <t>19801.375644600008</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t>3130.08</t>
+          <t>8702.94</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>Owen Group</t>
+          <t>Torres LLC</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>Ut-029</t>
+          <t>uN-885</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Wide My</t>
+          <t>Phone Matter</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>7513.67</t>
+          <t>10314.561074400002</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>8702.94</t>
+          <t>4385.07</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>Torres LLC</t>
+          <t>Glover, Johnson and Smith</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>uN-885</t>
+          <t>NW-532</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Phone Matter</t>
+          <t>Now Prove</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>3913.88</t>
+          <t>34309.722328200005</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>4385.07</t>
+          <t>8337.06</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>Glover, Johnson and Smith</t>
+          <t>Jarvis-Hensley</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>NW-532</t>
+          <t>IO-148</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Now Prove</t>
+          <t>Quality Never</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>13018.89</t>
+          <t>29059.913599200012</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>8337.06</t>
+          <t>3706.57</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>Jarvis-Hensley</t>
+          <t>Mullen and Sons</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>IO-148</t>
+          <t>ed-555</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Quality Never</t>
+          <t>New Fly</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>11026.84</t>
+          <t>9225.893502540004</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
-          <t>3706.57</t>
+          <t>2434.51</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>Mullen and Sons</t>
+          <t>Hendrix, Guzman and Tran</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>ed-555</t>
+          <t>UO-605</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>New Fly</t>
+          <t>Threat Fish</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>3182.53</t>
+          <t>35989.566247800016</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>2434.51</t>
+          <t>2434.68</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>Hendrix, Guzman and Tran</t>
+          <t>Galloway, Bowers and Smith</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>UO-605</t>
+          <t>Vy-473</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Threat Fish</t>
+          <t>More Another</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t>13656.31</t>
+          <t>11797.990122600006</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
-          <t>2434.68</t>
+          <t>2067.31</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
-          <t>Galloway, Bowers and Smith</t>
+          <t>Manning-York</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>Vy-473</t>
+          <t>rc-069</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>More Another</t>
+          <t>School Seek</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>4476.77</t>
+          <t>34838.511325200016</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>2067.31</t>
+          <t>7142.91</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>Manning-York</t>
+          <t>Knight, Edwards and Chambers</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>rc-069</t>
+          <t>dQ-545</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>School Seek</t>
+          <t>Write During</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t>13219.54</t>
+          <t>24228.919459800007</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
-          <t>7142.91</t>
+          <t>1259.77</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>Knight, Edwards and Chambers</t>
+          <t>Hoffman, Summers and Neal</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>dQ-545</t>
+          <t>ns-647</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Write During</t>
+          <t>Stay Character</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>9193.71</t>
+          <t>9956.992716000004</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>1259.77</t>
+          <t>5171.22</t>
         </is>
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>Hoffman, Summers and Neal</t>
+          <t>Romero-Turner</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>ns-647</t>
+          <t>cU-393</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Stay Character</t>
+          <t>Result Indeed</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>3778.2</t>
+          <t>35918.09474220001</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>5171.22</t>
+          <t>2981.82</t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>Romero-Turner</t>
+          <t>Garcia-Jordan</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>cU-393</t>
+          <t>tc-004</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Result Indeed</t>
+          <t>Save Sing</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>13629.19</t>
+          <t>21470.704398000005</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>2981.82</t>
+          <t>5535.93</t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>Garcia-Jordan</t>
+          <t>Crawford-Alexander</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>tc-004</t>
+          <t>Up-784</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Save Sing</t>
+          <t>If Entire</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>8147.1</t>
+          <t>3653.3218788000013</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>5535.93</t>
+          <t>6009.18</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>Crawford-Alexander</t>
+          <t>Miller-Kelley</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>Up-784</t>
+          <t>ef-727</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>If Entire</t>
+          <t>Process Every</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -4849,189 +4849,189 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>1386.26</t>
+          <t>4319.282404800002</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>6009.18</t>
+          <t>4916.31</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>Miller-Kelley</t>
+          <t>Chambers Ltd</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>ef-727</t>
+          <t>Um-364</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Process Every</t>
+          <t>Behind Alone</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>1638.96</t>
+          <t>11523.923779500004</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>4916.31</t>
+          <t>4187.14</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>Chambers Ltd</t>
+          <t>Adams-Williams</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>Um-364</t>
+          <t>AK-938</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Behind Alone</t>
+          <t>Involve Respond</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>3975.25</t>
+          <t>16647.81932286001</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>4187.14</t>
+          <t>2585.17</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>Adams-Williams</t>
+          <t>Fuentes, Edwards and Mills</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>AK-938</t>
+          <t>cK-357</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Involve Respond</t>
+          <t>Until Standard</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t>5742.77</t>
+          <t>6844.292690400001</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr">
         <is>
-          <t>2585.17</t>
+          <t>6324.5</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>Fuentes, Edwards and Mills</t>
+          <t>Villanueva Group</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>cK-357</t>
+          <t>Gn-230</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Until Standard</t>
+          <t>Can House</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>2597.08</t>
+          <t>17028.402454800005</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>6324.5</t>
+          <t>6459.83</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>Villanueva Group</t>
+          <t>Norman-Diaz</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Gn-230</t>
+          <t>Hw-418</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Can House</t>
+          <t>Shake Clearly</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t>6461.46</t>
+          <t>21135.405000600007</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
         <is>
-          <t>6459.83</t>
+          <t>5551.79</t>
         </is>
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>Norman-Diaz</t>
+          <t>Freeman-Hawkins</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>Hw-418</t>
+          <t>CF-135</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Shake Clearly</t>
+          <t>Trip Manage</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -5041,140 +5041,140 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>8019.87</t>
+          <t>42159.631225140016</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>5551.79</t>
+          <t>7477.17</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>Freeman-Hawkins</t>
+          <t>Fisher, Adams and Brown</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>CF-135</t>
+          <t>Wi-664</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Trip Manage</t>
+          <t>Upon Focus</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t>14543.23</t>
+          <t>6890.016533400001</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
         <is>
-          <t>7477.17</t>
+          <t>7920.46</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>Fisher, Adams and Brown</t>
+          <t>Diaz Group</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>Wi-664</t>
+          <t>FX-978</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Upon Focus</t>
+          <t>Sometimes Visit</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>2614.43</t>
+          <t>10323.442305000002</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>7920.46</t>
+          <t>7093.55</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>Diaz Group</t>
+          <t>Vargas, Ashley and Harris</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>FX-978</t>
+          <t>RZ-534</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Sometimes Visit</t>
+          <t>Property Even</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>3917.25</t>
+          <t>27963.753642000007</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t>7093.55</t>
+          <t>5216.92</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>Vargas, Ashley and Harris</t>
+          <t>Levy, Garcia and Fisher</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>RZ-534</t>
+          <t>ZL-078</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Property Even</t>
+          <t>Leg Media</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>10610.9</t>
+          <t>21564.787464000005</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>5216.92</t>
+          <t>1257.59</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr">
@@ -5186,332 +5186,332 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>ZL-078</t>
+          <t>vB-442</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Leg Media</t>
+          <t>List Painting</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t>8182.8</t>
+          <t>35064.32649588002</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>1257.59</t>
+          <t>2806.88</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>Levy, Garcia and Fisher</t>
+          <t>Howard Ltd</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>vB-442</t>
+          <t>dD-689</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>List Painting</t>
+          <t>Improve Together</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>12095.66</t>
+          <t>12933.074642400004</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>2806.88</t>
+          <t>7072.66</t>
         </is>
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>Howard Ltd</t>
+          <t>Rodriguez-Oneill</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>dD-689</t>
+          <t>fP-179</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Improve Together</t>
+          <t>Use Onto</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>4907.48</t>
+          <t>33540.718444200014</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>7072.66</t>
+          <t>4160.64</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>Rodriguez-Oneill</t>
+          <t>Adams-Williams</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>fP-179</t>
+          <t>ID-846</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Use Onto</t>
+          <t>Whom Imagine</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>12727.09</t>
+          <t>19517.966879400006</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>4160.64</t>
+          <t>3697.26</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>Adams-Williams</t>
+          <t>Chambers Ltd</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>ID-846</t>
+          <t>Mh-435</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Whom Imagine</t>
+          <t>Idea Case</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>7406.13</t>
+          <t>28596.463578540017</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>3697.26</t>
+          <t>7807.26</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>Chambers Ltd</t>
+          <t>Robinson-Allen</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>Mh-435</t>
+          <t>NI-597</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Idea Case</t>
+          <t>Attorney Anyone</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>9864.53</t>
+          <t>25519.059197280007</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>7807.26</t>
+          <t>9118.46</t>
         </is>
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>Robinson-Allen</t>
+          <t>Peterson, Rodriguez and Miller</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>NI-597</t>
+          <t>nx-884</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Attorney Anyone</t>
+          <t>My Quality</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>8802.96</t>
+          <t>23100.001729200012</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
         <is>
-          <t>9118.46</t>
+          <t>9473.55</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>Peterson, Rodriguez and Miller</t>
+          <t>Carpenter Ltd</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>nx-884</t>
+          <t>OB-221</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>My Quality</t>
+          <t>Region Act</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>8765.34</t>
+          <t>35956.33410600002</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>9473.55</t>
+          <t>6336.16</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>Carpenter Ltd</t>
+          <t>Stephenson Group</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>OB-221</t>
+          <t>FM-966</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Region Act</t>
+          <t>Shoulder Itself</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t>13643.7</t>
+          <t>23320.577764440008</t>
         </is>
       </c>
       <c r="E157" s="3" t="inlineStr">
         <is>
-          <t>6336.16</t>
+          <t>2290.85</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>Stephenson Group</t>
+          <t>Cole, Rangel and Davis</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>FM-966</t>
+          <t>Bd-774</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Shoulder Itself</t>
+          <t>Above However</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>8044.58</t>
+          <t>29529.56466900001</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>2290.85</t>
+          <t>8242.78</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>Cole, Rangel and Davis</t>
+          <t>Lucas-Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Bd-774</t>
+          <t>yL-513</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Above However</t>
+          <t>Determine Herself</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -5521,29 +5521,29 @@
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>11205.05</t>
+          <t>17911.70276940001</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>8242.78</t>
+          <t>4559.85</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>Lucas-Rodriguez</t>
+          <t>Wood, Marshall and Cordova</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>yL-513</t>
+          <t>WS-365</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Determine Herself</t>
+          <t>Cause My</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -5553,573 +5553,573 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>6796.63</t>
+          <t>8005.994548200003</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>4559.85</t>
+          <t>9552.85</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>Wood, Marshall and Cordova</t>
+          <t>Lee, Fry and Jennings</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>WS-365</t>
+          <t>eS-602</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Cause My</t>
+          <t>Investment Bit</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>3037.89</t>
+          <t>35542.63215360001</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>9552.85</t>
+          <t>5934.99</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>Lee, Fry and Jennings</t>
+          <t>Chambers Ltd</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>eS-602</t>
+          <t>dO-748</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Investment Bit</t>
+          <t>Still At</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>13486.72</t>
+          <t>10603.459336140006</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>5934.99</t>
+          <t>3955.02</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>Chambers Ltd</t>
+          <t>Love Ltd</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>dO-748</t>
+          <t>XZ-831</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Still At</t>
+          <t>Some Worry</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>3657.73</t>
+          <t>19802.93051880001</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t>3955.02</t>
+          <t>8531.0</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>Love Ltd</t>
+          <t>Jarvis-Hensley</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>XZ-831</t>
+          <t>qh-209</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Some Worry</t>
+          <t>Find Boy</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>7514.26</t>
+          <t>38124.25040160001</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>8531.0</t>
+          <t>1846.35</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr">
         <is>
-          <t>Jarvis-Hensley</t>
+          <t>Rodriguez Group</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>qh-209</t>
+          <t>Ni-584</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Find Boy</t>
+          <t>Particular Safe</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
         <is>
-          <t>14466.32</t>
+          <t>10526.076673200005</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr">
         <is>
-          <t>1846.35</t>
+          <t>8095.12</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>Rodriguez Group</t>
+          <t>Mcintyre-Sloan</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>Ni-584</t>
+          <t>Si-534</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>Particular Safe</t>
+          <t>Difference Part</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>3994.14</t>
+          <t>23744.42856522001</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>8095.12</t>
+          <t>5941.57</t>
         </is>
       </c>
       <c r="F166" s="2" t="inlineStr">
         <is>
-          <t>Mcintyre-Sloan</t>
+          <t>Howard, Peterson and White</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Si-534</t>
+          <t>if-704</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Difference Part</t>
+          <t>Turn Reflect</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
-          <t>8190.79</t>
+          <t>13418.772541020006</t>
         </is>
       </c>
       <c r="E167" s="3" t="inlineStr">
         <is>
-          <t>5941.57</t>
+          <t>1086.42</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>Howard, Peterson and White</t>
+          <t>Crawford-Alexander</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>if-704</t>
+          <t>Aa-152</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Turn Reflect</t>
+          <t>Me Each</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>4628.89</t>
+          <t>29583.616312800008</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>1086.42</t>
+          <t>7202.74</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>Crawford-Alexander</t>
+          <t>Beltran-Powell</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Aa-152</t>
+          <t>Dz-776</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Me Each</t>
+          <t>People All</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
         <is>
-          <t>11225.56</t>
+          <t>38912.72974380002</t>
         </is>
       </c>
       <c r="E169" s="3" t="inlineStr">
         <is>
-          <t>7202.74</t>
+          <t>8469.32</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>Beltran-Powell</t>
+          <t>Chan, Johnson and Melton</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>Dz-776</t>
+          <t>ei-029</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>People All</t>
+          <t>Kid Me</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>14765.51</t>
+          <t>32056.604197200013</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>8469.32</t>
+          <t>6458.9</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>Chan, Johnson and Melton</t>
+          <t>Torres LLC</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>ei-029</t>
+          <t>nd-909</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Kid Me</t>
+          <t>Sound Commercial</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>12163.94</t>
+          <t>17824.418983800006</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>6458.9</t>
+          <t>9941.73</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>Torres LLC</t>
+          <t>Glass-Hill</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>nd-909</t>
+          <t>VO-219</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>Sound Commercial</t>
+          <t>Campaign Risk</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>6763.51</t>
+          <t>21281.68176750001</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>9941.73</t>
+          <t>7396.78</t>
         </is>
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>Glass-Hill</t>
+          <t>Vargas, Ashley and Harris</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>VO-219</t>
+          <t>pK-086</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Campaign Risk</t>
+          <t>You Yeah</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t>7341.25</t>
+          <t>32524.14696300001</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>7396.78</t>
+          <t>9995.29</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>Vargas, Ashley and Harris</t>
+          <t>Peterson, Rodriguez and Miller</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>pK-086</t>
+          <t>dX-639</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>You Yeah</t>
+          <t>Mention Some</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>12341.35</t>
+          <t>4608.278175600001</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>9995.29</t>
+          <t>7219.45</t>
         </is>
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>Peterson, Rodriguez and Miller</t>
+          <t>Wong-Smith</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>dX-639</t>
+          <t>qG-727</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Mention Some</t>
+          <t>Although Process</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>1748.62</t>
+          <t>17187.0523308</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>7219.45</t>
+          <t>6449.54</t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>Wong-Smith</t>
+          <t>Haley Inc</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>qG-727</t>
+          <t>fg-513</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Although Process</t>
+          <t>Safe Career</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>6521.66</t>
+          <t>31002.399489600015</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>6449.54</t>
+          <t>4305.1</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>Haley Inc</t>
+          <t>Villanueva Group</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>fg-513</t>
+          <t>IK-663</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Safe Career</t>
+          <t>Day Part</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D177" s="3" t="inlineStr">
         <is>
-          <t>11763.92</t>
+          <t>18225.65558880001</t>
         </is>
       </c>
       <c r="E177" s="3" t="inlineStr">
         <is>
-          <t>4305.1</t>
+          <t>1936.24</t>
         </is>
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>Villanueva Group</t>
+          <t>Phillips and Sons</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>IK-663</t>
+          <t>YE-937</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Day Part</t>
+          <t>Thus Source</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -6129,93 +6129,93 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>6915.76</t>
+          <t>9073.207491480007</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>1936.24</t>
+          <t>3268.5</t>
         </is>
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>Phillips and Sons</t>
+          <t>Parker-Mills</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>YE-937</t>
+          <t>rL-609</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Thus Source</t>
+          <t>Person Various</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
         <is>
-          <t>3129.86</t>
+          <t>20008.332036000007</t>
         </is>
       </c>
       <c r="E179" s="3" t="inlineStr">
         <is>
-          <t>3268.5</t>
+          <t>8380.14</t>
         </is>
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>Parker-Mills</t>
+          <t>Clark-Curtis</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>rL-609</t>
+          <t>Ve-339</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Person Various</t>
+          <t>Food Staff</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>7592.2</t>
+          <t>9623.509095420006</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr">
         <is>
-          <t>8380.14</t>
+          <t>6013.05</t>
         </is>
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>Clark-Curtis</t>
+          <t>Gutierrez-Lopez</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Ve-339</t>
+          <t>Ua-087</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Food Staff</t>
+          <t>Detail Summer</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -6225,157 +6225,157 @@
       </c>
       <c r="D181" s="3" t="inlineStr">
         <is>
-          <t>3319.69</t>
+          <t>13069.018084320003</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr">
         <is>
-          <t>6013.05</t>
+          <t>5080.74</t>
         </is>
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>Gutierrez-Lopez</t>
+          <t>Chan, Johnson and Melton</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>Ua-087</t>
+          <t>dn-142</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Detail Summer</t>
+          <t>Plant Open</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>4508.24</t>
+          <t>27348.68230380001</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>5080.74</t>
+          <t>9193.28</t>
         </is>
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>Chan, Johnson and Melton</t>
+          <t>Rodriguez Group</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>dn-142</t>
+          <t>gl-220</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Plant Open</t>
+          <t>Show Know</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t>10377.51</t>
+          <t>5683.961230200001</t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t>9193.28</t>
+          <t>6898.32</t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>Rodriguez Group</t>
+          <t>Wong-Smith</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>gl-220</t>
+          <t>Cy-762</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>Show Know</t>
+          <t>Worry Parent</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>2156.79</t>
+          <t>17396.828578800007</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>6898.32</t>
+          <t>3520.08</t>
         </is>
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>Wong-Smith</t>
+          <t>Watts, Barrett and Simpson</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Cy-762</t>
+          <t>KI-106</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Worry Parent</t>
+          <t>Read Page</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>6601.26</t>
+          <t>30108.61036260001</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
         <is>
-          <t>3520.08</t>
+          <t>1649.11</t>
         </is>
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>Watts, Barrett and Simpson</t>
+          <t>Lucas-Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>KI-106</t>
+          <t>Dj-674</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>Read Page</t>
+          <t>News People</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -6385,381 +6385,381 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>11424.77</t>
+          <t>27365.11916886001</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr">
         <is>
-          <t>1649.11</t>
+          <t>9621.89</t>
         </is>
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>Lucas-Rodriguez</t>
+          <t>Stephenson Group</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Dj-674</t>
+          <t>pY-156</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>News People</t>
+          <t>Reason Hospital</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t>9439.77</t>
+          <t>8875.353702600003</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t>9621.89</t>
+          <t>3677.35</t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>Stephenson Group</t>
+          <t>Mitchell-Murphy</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>pY-156</t>
+          <t>gA-321</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>Reason Hospital</t>
+          <t>Decade Science</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>3367.77</t>
+          <t>24940.340290800006</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
         <is>
-          <t>3677.35</t>
+          <t>2736.17</t>
         </is>
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>Mitchell-Murphy</t>
+          <t>Mullen and Sons</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>gA-321</t>
+          <t>dq-850</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Decade Science</t>
+          <t>Heart Money</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>9463.66</t>
+          <t>12751.818476760003</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr">
         <is>
-          <t>2736.17</t>
+          <t>4995.09</t>
         </is>
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>Mullen and Sons</t>
+          <t>Owen Group</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>dq-850</t>
+          <t>fe-384</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>Heart Money</t>
+          <t>Gas Visit</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>4398.82</t>
+          <t>10931.993713080004</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr">
         <is>
-          <t>4995.09</t>
+          <t>4781.34</t>
         </is>
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>Owen Group</t>
+          <t>Raymond, Martinez and Warren</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>fe-384</t>
+          <t>te-313</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Gas Visit</t>
+          <t>Interview Language</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>3771.06</t>
+          <t>22020.523727400003</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr">
         <is>
-          <t>4781.34</t>
+          <t>6059.6</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>Raymond, Martinez and Warren</t>
+          <t>Stewart Inc</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>te-313</t>
+          <t>Cp-335</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>Interview Language</t>
+          <t>Laugh Understand</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>8355.73</t>
+          <t>34464.55090320001</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr">
         <is>
-          <t>6059.6</t>
+          <t>6993.26</t>
         </is>
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>Stewart Inc</t>
+          <t>Ingram, Walker and Jones</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Cp-335</t>
+          <t>WJ-843</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Laugh Understand</t>
+          <t>Rise Though</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>13077.64</t>
+          <t>35958.55573134001</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr">
         <is>
-          <t>6993.26</t>
+          <t>8218.47</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>Ingram, Walker and Jones</t>
+          <t>Richard PLC</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>WJ-843</t>
+          <t>aI-456</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Rise Though</t>
+          <t>Available None</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>12404.13</t>
+          <t>30739.633655940015</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
         <is>
-          <t>8218.47</t>
+          <t>6034.78</t>
         </is>
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>Richard PLC</t>
+          <t>Haney-Clark</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>aI-456</t>
+          <t>dH-329</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Available None</t>
+          <t>Entire Which</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>10603.83</t>
+          <t>7459.759335600003</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>6034.78</t>
+          <t>6890.07</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>Haney-Clark</t>
+          <t>Williams and Sons</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>dH-329</t>
+          <t>YM-925</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>Entire Which</t>
+          <t>Crime Behind</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>2830.62</t>
+          <t>7584.992593200002</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
         <is>
-          <t>6890.07</t>
+          <t>2952.2</t>
         </is>
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>Williams and Sons</t>
+          <t>Burns LLC</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>YM-925</t>
+          <t>ZM-790</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Crime Behind</t>
+          <t>Very All</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>2878.14</t>
+          <t>38064.005614800015</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t>2952.2</t>
+          <t>8780.61</t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>Burns LLC</t>
+          <t>Garcia-Jordan</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>ZM-790</t>
+          <t>rB-926</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Very All</t>
+          <t>Sure Message</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -6769,29 +6769,29 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>14443.46</t>
+          <t>26512.576374240012</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
         <is>
-          <t>8780.61</t>
+          <t>9511.84</t>
         </is>
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>Garcia-Jordan</t>
+          <t>Lewis, Cunningham and Diaz</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>rB-926</t>
+          <t>mm-550</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Sure Message</t>
+          <t>Represent Area</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -6801,29 +6801,29 @@
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>9145.68</t>
+          <t>30418.900003800012</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t>9511.84</t>
+          <t>7331.89</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
-          <t>Lewis, Cunningham and Diaz</t>
+          <t>Ray PLC</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>mm-550</t>
+          <t>fM-349</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Represent Area</t>
+          <t>Blue Fine</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -6833,113 +6833,17 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>11542.51</t>
+          <t>29418.088095000014</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t>7331.89</t>
+          <t>1137.36</t>
         </is>
       </c>
       <c r="F200" s="2" t="inlineStr">
         <is>
-          <t>Ray PLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="3" t="inlineStr">
-        <is>
-          <t>fM-349</t>
-        </is>
-      </c>
-      <c r="B201" s="3" t="inlineStr">
-        <is>
-          <t>Blue Fine</t>
-        </is>
-      </c>
-      <c r="C201" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D201" s="3" t="inlineStr">
-        <is>
-          <t>11162.75</t>
-        </is>
-      </c>
-      <c r="E201" s="3" t="inlineStr">
-        <is>
-          <t>1137.36</t>
-        </is>
-      </c>
-      <c r="F201" s="3" t="inlineStr">
-        <is>
           <t>Johnson LLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>21w3123123</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>231231</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>Turner Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="3" t="inlineStr">
-        <is>
-          <t>12123123123</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr">
-        <is>
-          <t>312231231</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="D203" s="3" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="E203" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F203" s="3" t="inlineStr">
-        <is>
-          <t>Mitchell-Murphy</t>
         </is>
       </c>
     </row>

--- a/Backend/media/planillas_excel/inventario.xlsx
+++ b/Backend/media/planillas_excel/inventario.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,12 +439,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,44 +482,44 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>dasasd</t>
+          <t>0111111111111111112</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>sdadas</t>
+          <t>Cigarrillos Camel x12</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>978.0</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>2500.0</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>2022.0</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Sin proveedor</t>
+          <t>TiendaClick</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>12332</t>
+          <t>asdf</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>lol</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -529,83 +529,15 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>312.0</t>
+          <t>1000.0</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Sin proveedor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>12333</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Sin proveedor</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>sdfsdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>fsdsdffsd</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Sin proveedor</t>
-        </is>
-      </c>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Backend/media/planillas_excel/inventario.xlsx
+++ b/Backend/media/planillas_excel/inventario.xlsx
@@ -55,15 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,12 +436,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -482,62 +479,34 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>0111111111111111112</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Cigarrillos Camel x12</t>
+          <t>caraca</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>978.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2500.0</t>
+          <t>200.0</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>2022.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>TiendaClick</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>lol</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr"/>
+          <t>Sin proveedor</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
